--- a/data_output/prism_passive/all_passive_out_strain_AT_common_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_strain_AT_common_max.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11364" windowHeight="6744"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11370" windowHeight="6750"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -356,7 +351,7 @@
       <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -518,154 +513,154 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>26.864535519295309</v>
+        <v>26.864535600675367</v>
       </c>
       <c r="C2">
-        <v>7.8760810914285813</v>
+        <v>7.8760810995572932</v>
       </c>
       <c r="D2">
-        <v>42.113727555400907</v>
+        <v>42.113727608794377</v>
       </c>
       <c r="E2">
-        <v>14.646240013039016</v>
+        <v>14.64624006401869</v>
       </c>
       <c r="F2">
-        <v>158.88010037087327</v>
+        <v>158.88010039225819</v>
       </c>
       <c r="G2">
-        <v>-1.4174906943441401</v>
+        <v>-1.4174906775896776</v>
       </c>
       <c r="H2">
-        <v>-0.1084425085278764</v>
+        <v>-0.10844247639823042</v>
       </c>
       <c r="I2">
-        <v>2.9911684132279581</v>
+        <v>2.9911684384391743</v>
       </c>
       <c r="J2">
-        <v>1.1776787928568744</v>
+        <v>1.1776788238362317</v>
       </c>
       <c r="K2">
-        <v>3.0544405164773831</v>
+        <v>3.0544405295292574</v>
       </c>
       <c r="L2">
-        <v>-0.3381979791664213</v>
+        <v>-0.33819795515866186</v>
       </c>
       <c r="M2">
-        <v>18.59237058454767</v>
+        <v>18.592370682704569</v>
       </c>
       <c r="N2">
-        <v>-0.13008440449678796</v>
+        <v>-0.13008434134624508</v>
       </c>
       <c r="O2">
-        <v>-12.452077785309262</v>
+        <v>-12.452077726416931</v>
       </c>
       <c r="P2">
-        <v>40.625224877461555</v>
+        <v>40.625224947407176</v>
       </c>
       <c r="Q2">
-        <v>13.620445085938886</v>
+        <v>13.620445110715396</v>
       </c>
       <c r="R2">
-        <v>6.1063277974351502</v>
+        <v>6.1063278160393972</v>
       </c>
       <c r="S2">
-        <v>10.64943737050436</v>
+        <v>10.649437396724251</v>
       </c>
       <c r="T2">
-        <v>0.39993947693267273</v>
+        <v>0.39993955223344529</v>
       </c>
       <c r="U2">
-        <v>-19.484948714306682</v>
+        <v>-19.484948692119278</v>
       </c>
       <c r="V2">
-        <v>6.3555812882600913</v>
+        <v>6.355581329917614</v>
       </c>
       <c r="W2">
-        <v>-13.176740493376021</v>
+        <v>-13.176740433774125</v>
       </c>
       <c r="X2">
-        <v>-14.372717479898483</v>
+        <v>-14.372717422755493</v>
       </c>
       <c r="Y2">
-        <v>-11.97070263902879</v>
+        <v>-11.970702545451617</v>
       </c>
       <c r="Z2">
-        <v>51.046211226974805</v>
+        <v>51.046211277776074</v>
       </c>
       <c r="AA2">
-        <v>-16.257082954713908</v>
+        <v>-16.257082910413068</v>
       </c>
       <c r="AB2">
-        <v>5.8073229184237771</v>
+        <v>5.8073229527761354</v>
       </c>
       <c r="AC2">
-        <v>-2.6023411902829658</v>
+        <v>-2.6023411771520029</v>
       </c>
       <c r="AD2">
-        <v>18.045193440640791</v>
+        <v>18.04519346195023</v>
       </c>
       <c r="AE2">
-        <v>67.639028508985405</v>
+        <v>67.639028544474527</v>
       </c>
       <c r="AF2">
-        <v>3.1203612357277399</v>
+        <v>3.1203612461247094</v>
       </c>
       <c r="AG2">
-        <v>-1.7599310789370004</v>
+        <v>-1.7599310522406253</v>
       </c>
       <c r="AH2">
-        <v>6.333296537841866</v>
+        <v>6.3332965530780525</v>
       </c>
       <c r="AI2">
-        <v>-10.103523338067241</v>
+        <v>-10.103523312141546</v>
       </c>
       <c r="AJ2">
-        <v>4.838500382364086</v>
+        <v>4.8385003825462354</v>
       </c>
       <c r="AK2">
-        <v>1.5103124225148468</v>
+        <v>1.5103124398025973</v>
       </c>
       <c r="AL2">
-        <v>0.37132247139266633</v>
+        <v>0.37132251748059114</v>
       </c>
       <c r="AM2">
-        <v>0.93357612231804321</v>
+        <v>0.93357617202450061</v>
       </c>
       <c r="AN2">
-        <v>1.7947444141219639</v>
+        <v>1.7947444722365318</v>
       </c>
       <c r="AO2">
-        <v>4.9821498318125634</v>
+        <v>4.9821498411103615</v>
       </c>
       <c r="AP2">
-        <v>-9.296074648696198</v>
+        <v>-9.296074589766107</v>
       </c>
       <c r="AQ2">
-        <v>-3.4457367537282693E-2</v>
+        <v>-3.4457315984082804E-2</v>
       </c>
       <c r="AR2">
-        <v>3.0728831141091151</v>
+        <v>3.0728831138738268</v>
       </c>
       <c r="AS2">
-        <v>-8.2174919158586484</v>
+        <v>-8.2174919065512384</v>
       </c>
       <c r="AT2">
-        <v>-5.5397203152594372</v>
+        <v>-5.5397202877937319</v>
       </c>
       <c r="AU2">
-        <v>-6.9283547500079772</v>
+        <v>-6.9283547372058898</v>
       </c>
       <c r="AV2">
-        <v>8.937355388823665</v>
+        <v>8.9373554580092467</v>
       </c>
       <c r="AW2">
-        <v>-10.005682517281953</v>
+        <v>-10.005682499767596</v>
       </c>
       <c r="AX2">
-        <v>8.8238809864883569E-2</v>
+        <v>8.8238852616409624E-2</v>
       </c>
       <c r="AY2">
-        <v>-10.99103746477077</v>
+        <v>-10.99103743914905</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -673,154 +668,154 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>17.214337016280378</v>
+        <v>17.214337084617611</v>
       </c>
       <c r="C3">
-        <v>2.0514135991002611</v>
+        <v>2.0514136484493251</v>
       </c>
       <c r="D3">
-        <v>-12.162541114355601</v>
+        <v>-12.162541048998735</v>
       </c>
       <c r="E3">
-        <v>13.78171849918958</v>
+        <v>13.781718570907383</v>
       </c>
       <c r="F3">
-        <v>16.510174890838218</v>
+        <v>16.510174901873292</v>
       </c>
       <c r="G3">
-        <v>-4.9173289852084965</v>
+        <v>-4.917328931072265</v>
       </c>
       <c r="H3">
-        <v>0.23101375256675843</v>
+        <v>0.23101379132207167</v>
       </c>
       <c r="I3">
-        <v>0.91345951900332811</v>
+        <v>0.91345953694479298</v>
       </c>
       <c r="J3">
-        <v>1.510305764785937</v>
+        <v>1.5103057893524949</v>
       </c>
       <c r="K3">
-        <v>-14.360363963597605</v>
+        <v>-14.360363928576284</v>
       </c>
       <c r="L3">
-        <v>-27.869281731566957</v>
+        <v>-27.869281703974114</v>
       </c>
       <c r="M3">
-        <v>21.408504932031828</v>
+        <v>21.408259837742481</v>
       </c>
       <c r="N3">
-        <v>3.0969425201565683</v>
+        <v>3.0969425697087836</v>
       </c>
       <c r="O3">
-        <v>7.2264944192813747</v>
+        <v>7.226494459758567</v>
       </c>
       <c r="P3">
-        <v>-3.9360356952135724</v>
+        <v>-3.936035622024856</v>
       </c>
       <c r="Q3">
-        <v>14.271553830504402</v>
+        <v>14.271553892826297</v>
       </c>
       <c r="R3">
-        <v>8.7874522071726631</v>
+        <v>8.7874522428419315</v>
       </c>
       <c r="S3">
-        <v>10.299784346224369</v>
+        <v>10.29978437408953</v>
       </c>
       <c r="T3">
-        <v>5.2519673435242069</v>
+        <v>5.2519673717749686</v>
       </c>
       <c r="U3">
-        <v>3.8834114443258927</v>
+        <v>3.883411491228745</v>
       </c>
       <c r="V3">
-        <v>-27.391273524829213</v>
+        <v>-27.391273492590209</v>
       </c>
       <c r="W3">
-        <v>-5.5511603451703539</v>
+        <v>-5.5511603161054062</v>
       </c>
       <c r="X3">
-        <v>7.8624438941661223</v>
+        <v>7.8624439455059587</v>
       </c>
       <c r="Y3">
-        <v>5.6873913177939537</v>
+        <v>5.6873913543657855</v>
       </c>
       <c r="Z3">
-        <v>4.0330154709508585</v>
+        <v>4.0330155194595383</v>
       </c>
       <c r="AA3">
-        <v>-10.238659012510395</v>
+        <v>-10.238658967885996</v>
       </c>
       <c r="AB3">
-        <v>3.4319846460974404</v>
+        <v>3.4319846822973852</v>
       </c>
       <c r="AC3">
-        <v>-4.6663002456122777</v>
+        <v>-4.6663002146533499</v>
       </c>
       <c r="AD3">
-        <v>14.988363863896675</v>
+        <v>14.98836388179755</v>
       </c>
       <c r="AE3">
-        <v>-8.1754054438708845</v>
+        <v>-8.1754054334582538</v>
       </c>
       <c r="AF3">
-        <v>-3.4483275947113299</v>
+        <v>-3.4483275579780792</v>
       </c>
       <c r="AG3">
-        <v>-11.502713329469593</v>
+        <v>-11.502713307150302</v>
       </c>
       <c r="AH3">
-        <v>-22.786082132604381</v>
+        <v>-22.786082093001419</v>
       </c>
       <c r="AI3">
-        <v>2.1375924078738491</v>
+        <v>2.1375924322057962</v>
       </c>
       <c r="AJ3">
-        <v>-8.1414674779530625</v>
+        <v>-8.1414674287271325</v>
       </c>
       <c r="AK3">
-        <v>-15.525518235588009</v>
+        <v>-15.52551821432627</v>
       </c>
       <c r="AL3">
-        <v>-17.813495528787694</v>
+        <v>-17.813495476523659</v>
       </c>
       <c r="AM3">
-        <v>3.1892728418600127</v>
+        <v>3.1892729216170901</v>
       </c>
       <c r="AN3">
-        <v>15.667915332605507</v>
+        <v>15.66791535910021</v>
       </c>
       <c r="AO3">
-        <v>-3.6549962481946405</v>
+        <v>-3.6549961391114723</v>
       </c>
       <c r="AP3">
-        <v>-0.39729332971844877</v>
+        <v>-0.39729328961377164</v>
       </c>
       <c r="AQ3">
-        <v>-6.8673572899228192</v>
+        <v>-6.8673572750220249</v>
       </c>
       <c r="AR3">
-        <v>4.9581061998312119</v>
+        <v>4.9581062257316368</v>
       </c>
       <c r="AS3">
-        <v>7.8006214353476837</v>
+        <v>7.8006214582446542</v>
       </c>
       <c r="AT3">
-        <v>3.0091084833375641</v>
+        <v>3.009108495623714</v>
       </c>
       <c r="AU3">
-        <v>-10.126852275623728</v>
+        <v>-10.126852229125047</v>
       </c>
       <c r="AV3">
-        <v>-6.0036556362856892</v>
+        <v>-6.0036556020982301</v>
       </c>
       <c r="AW3">
-        <v>1.6944211495929795</v>
+        <v>1.6944211957811415</v>
       </c>
       <c r="AX3">
-        <v>6.0547278608108215</v>
+        <v>6.0547279175095152</v>
       </c>
       <c r="AY3">
-        <v>3.4158822842388177</v>
+        <v>3.4158823449441758</v>
       </c>
     </row>
   </sheetData>

--- a/data_output/prism_passive/all_passive_out_strain_AT_common_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_strain_AT_common_max.xlsx
@@ -19,15 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>Subj</t>
-  </si>
-  <si>
-    <t>CON</t>
-  </si>
-  <si>
-    <t>STR</t>
   </si>
 </sst>
 </file>
@@ -357,57 +351,6 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>4</v>
-      </c>
-      <c r="F1">
-        <v>5</v>
-      </c>
-      <c r="G1">
-        <v>6</v>
-      </c>
-      <c r="H1">
-        <v>7</v>
-      </c>
-      <c r="I1">
-        <v>8</v>
-      </c>
-      <c r="J1">
-        <v>9</v>
-      </c>
-      <c r="K1">
-        <v>10</v>
-      </c>
-      <c r="L1">
-        <v>11</v>
-      </c>
-      <c r="M1">
-        <v>13</v>
-      </c>
-      <c r="N1">
-        <v>15</v>
-      </c>
-      <c r="O1">
-        <v>16</v>
-      </c>
-      <c r="P1">
-        <v>18</v>
-      </c>
-      <c r="Q1">
-        <v>19</v>
-      </c>
-      <c r="R1">
-        <v>20</v>
-      </c>
       <c r="S1">
         <v>21</v>
       </c>
@@ -432,57 +375,6 @@
       <c r="Z1">
         <v>31</v>
       </c>
-      <c r="AA1">
-        <v>1</v>
-      </c>
-      <c r="AB1">
-        <v>2</v>
-      </c>
-      <c r="AC1">
-        <v>3</v>
-      </c>
-      <c r="AD1">
-        <v>4</v>
-      </c>
-      <c r="AE1">
-        <v>5</v>
-      </c>
-      <c r="AF1">
-        <v>6</v>
-      </c>
-      <c r="AG1">
-        <v>7</v>
-      </c>
-      <c r="AH1">
-        <v>8</v>
-      </c>
-      <c r="AI1">
-        <v>9</v>
-      </c>
-      <c r="AJ1">
-        <v>10</v>
-      </c>
-      <c r="AK1">
-        <v>11</v>
-      </c>
-      <c r="AL1">
-        <v>13</v>
-      </c>
-      <c r="AM1">
-        <v>15</v>
-      </c>
-      <c r="AN1">
-        <v>16</v>
-      </c>
-      <c r="AO1">
-        <v>18</v>
-      </c>
-      <c r="AP1">
-        <v>19</v>
-      </c>
-      <c r="AQ1">
-        <v>20</v>
-      </c>
       <c r="AR1">
         <v>21</v>
       </c>
@@ -509,62 +401,59 @@
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
       <c r="B2">
-        <v>26.864535600675367</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>7.8760810995572932</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>42.113727608794377</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>14.64624006401869</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>158.88010039225819</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>-1.4174906775896776</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>-0.10844247639823042</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>2.9911684384391743</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>1.1776788238362317</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>3.0544405295292574</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>-0.33819795515866186</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>18.592370682704569</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>-0.13008434134624508</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>-12.452077726416931</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>40.625224947407176</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>13.620445110715396</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>6.1063278160393972</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>10.649437396724251</v>
+        <v>10.64936976935722</v>
       </c>
       <c r="T2">
         <v>0.39993955223344529</v>
@@ -576,147 +465,144 @@
         <v>6.355581329917614</v>
       </c>
       <c r="W2">
-        <v>-13.176740433774125</v>
+        <v>-13.176827404899402</v>
       </c>
       <c r="X2">
-        <v>-14.372717422755493</v>
+        <v>-14.37262789152069</v>
       </c>
       <c r="Y2">
         <v>-11.970702545451617</v>
       </c>
       <c r="Z2">
-        <v>51.046211277776074</v>
+        <v>51.046316364824953</v>
       </c>
       <c r="AA2">
-        <v>-16.257082910413068</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>5.8073229527761354</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>-2.6023411771520029</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>18.04519346195023</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>67.639028544474527</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>3.1203612461247094</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>-1.7599310522406253</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>6.3332965530780525</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>-10.103523312141546</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>4.8385003825462354</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>1.5103124398025973</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>0.37132251748059114</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>0.93357617202450061</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>1.7947444722365318</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>4.9821498411103615</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>-9.296074589766107</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>-3.4457315984082804E-2</v>
+        <v>0</v>
       </c>
       <c r="AR2">
-        <v>3.0728831138738268</v>
+        <v>3.072943964423406</v>
       </c>
       <c r="AS2">
         <v>-8.2174919065512384</v>
       </c>
       <c r="AT2">
-        <v>-5.5397202877937319</v>
+        <v>-5.5397760669431406</v>
       </c>
       <c r="AU2">
-        <v>-6.9283547372058898</v>
+        <v>-6.928302396183339</v>
       </c>
       <c r="AV2">
-        <v>8.9373554580092467</v>
+        <v>8.9372563708977104</v>
       </c>
       <c r="AW2">
-        <v>-10.005682499767596</v>
+        <v>-10.005589395455065</v>
       </c>
       <c r="AX2">
-        <v>8.8238852616409624E-2</v>
+        <v>8.8332831609742798E-2</v>
       </c>
       <c r="AY2">
-        <v>-10.99103743914905</v>
+        <v>-10.990986741307033</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
       <c r="B3">
-        <v>17.214337084617611</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>2.0514136484493251</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>-12.162541048998735</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>13.781718570907383</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>16.510174901873292</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>-4.917328931072265</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>0.23101379132207167</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0.91345953694479298</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>1.5103057893524949</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>-14.360363928576284</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>-27.869281703974114</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>21.408259837742481</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>3.0969425697087836</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>7.226494459758567</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>-3.936035622024856</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>14.271553892826297</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>8.7874522428419315</v>
+        <v>0</v>
       </c>
       <c r="S3">
         <v>10.29978437408953</v>
@@ -728,94 +614,94 @@
         <v>3.883411491228745</v>
       </c>
       <c r="V3">
-        <v>-27.391273492590209</v>
+        <v>-27.391236109620426</v>
       </c>
       <c r="W3">
-        <v>-5.5511603161054062</v>
+        <v>-5.5511146843916563</v>
       </c>
       <c r="X3">
-        <v>7.8624439455059587</v>
+        <v>7.8622802610960028</v>
       </c>
       <c r="Y3">
-        <v>5.6873913543657855</v>
+        <v>-39.028103899423243</v>
       </c>
       <c r="Z3">
-        <v>4.0330155194595383</v>
+        <v>-8.7625674258345896</v>
       </c>
       <c r="AA3">
-        <v>-10.238658967885996</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>3.4319846822973852</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>-4.6663002146533499</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>14.98836388179755</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>-8.1754054334582538</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>-3.4483275579780792</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>-11.502713307150302</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>-22.786082093001419</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>2.1375924322057962</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>-8.1414674287271325</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>-15.52551821432627</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>-17.813495476523659</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>3.1892729216170901</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>15.66791535910021</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>-3.6549961391114723</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>-0.39729328961377164</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>-6.8673572750220249</v>
+        <v>0</v>
       </c>
       <c r="AR3">
-        <v>4.9581062257316368</v>
+        <v>4.9580406211742805</v>
       </c>
       <c r="AS3">
-        <v>7.8006214582446542</v>
+        <v>7.8006697403684697</v>
       </c>
       <c r="AT3">
         <v>3.009108495623714</v>
       </c>
       <c r="AU3">
-        <v>-10.126852229125047</v>
+        <v>-10.126799756766964</v>
       </c>
       <c r="AV3">
-        <v>-6.0036556020982301</v>
+        <v>-6.0036118200398221</v>
       </c>
       <c r="AW3">
         <v>1.6944211957811415</v>
       </c>
       <c r="AX3">
-        <v>6.0547279175095152</v>
+        <v>-4.7350867099439924</v>
       </c>
       <c r="AY3">
-        <v>3.4158823449441758</v>
+        <v>-51.830087120722283</v>
       </c>
     </row>
   </sheetData>

--- a/data_output/prism_passive/all_passive_out_strain_AT_common_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_strain_AT_common_max.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9024"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>26.864455592479686</v>
+        <v>-12.452003414729768</v>
       </c>
       <c r="C2">
-        <v>-5.2031592494736723</v>
+        <v>6.1063278160393972</v>
       </c>
       <c r="D2">
-        <v>42.113805529235492</v>
+        <v>1.7946541736515533</v>
       </c>
       <c r="E2">
-        <v>14.646149299439742</v>
+        <v>-3.4537018995118768E-2</v>
       </c>
       <c r="F2">
         <v>158.88010037087327</v>
@@ -673,16 +668,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>17.214337016280378</v>
+        <v>7.226494459758567</v>
       </c>
       <c r="C3">
-        <v>-9.9183794352843879</v>
+        <v>8.7873681415789751</v>
       </c>
       <c r="D3">
-        <v>-12.162587692991126</v>
+        <v>15.667814657011764</v>
       </c>
       <c r="E3">
-        <v>13.781794564135957</v>
+        <v>-7.3683557482878959</v>
       </c>
       <c r="F3">
         <v>16.510174890838218</v>

--- a/data_output/prism_passive/all_passive_out_strain_AT_common_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_strain_AT_common_max.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9036"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>26.864455592479686</v>
+        <v>42.79353601253937</v>
       </c>
       <c r="C2">
-        <v>-5.2031592494736723</v>
+        <v>-12.452003414729768</v>
       </c>
       <c r="D2">
-        <v>42.113805529235492</v>
+        <v>-5.454241636103033</v>
       </c>
       <c r="E2">
-        <v>14.646149299439742</v>
+        <v>1.7946541736515533</v>
       </c>
       <c r="F2">
         <v>158.88010037087327</v>
@@ -673,16 +668,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>17.214337016280378</v>
+        <v>40.635045313971894</v>
       </c>
       <c r="C3">
-        <v>-9.9183794352843879</v>
+        <v>7.226494459758567</v>
       </c>
       <c r="D3">
-        <v>-12.162587692991126</v>
+        <v>-23.671649939920549</v>
       </c>
       <c r="E3">
-        <v>13.781794564135957</v>
+        <v>15.667814657011764</v>
       </c>
       <c r="F3">
         <v>16.510174890838218</v>

--- a/data_output/prism_passive/all_passive_out_strain_AT_common_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_strain_AT_common_max.xlsx
@@ -348,7 +348,7 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E3"/>
+      <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -358,16 +358,16 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C1">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E1">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -513,154 +513,154 @@
         <v>1</v>
       </c>
       <c r="B2">
+        <v>26.864455673859695</v>
+      </c>
+      <c r="C2">
+        <v>-5.2031592423305115</v>
+      </c>
+      <c r="D2">
+        <v>42.113805582628991</v>
+      </c>
+      <c r="E2">
+        <v>14.646149350419376</v>
+      </c>
+      <c r="F2">
+        <v>158.88010039225819</v>
+      </c>
+      <c r="G2">
+        <v>-1.4175728968332195</v>
+      </c>
+      <c r="H2">
+        <v>-0.10844247639823042</v>
+      </c>
+      <c r="I2">
+        <v>2.9912362425406478</v>
+      </c>
+      <c r="J2">
+        <v>1.1776359598581432</v>
+      </c>
+      <c r="K2">
+        <v>-21.196600697000548</v>
+      </c>
+      <c r="L2">
+        <v>-0.33822827857278986</v>
+      </c>
+      <c r="M2">
+        <v>18.592370682704569</v>
+      </c>
+      <c r="N2">
         <v>42.79353601253937</v>
       </c>
-      <c r="C2">
+      <c r="O2">
         <v>-12.452003414729768</v>
       </c>
-      <c r="D2">
+      <c r="P2">
+        <v>40.625224947407176</v>
+      </c>
+      <c r="Q2">
+        <v>-41.002215682216509</v>
+      </c>
+      <c r="R2">
+        <v>6.1063278160393972</v>
+      </c>
+      <c r="S2">
+        <v>10.64936976935722</v>
+      </c>
+      <c r="T2">
+        <v>0.39993955223344529</v>
+      </c>
+      <c r="U2">
+        <v>-19.484948692119278</v>
+      </c>
+      <c r="V2">
+        <v>6.355581329917614</v>
+      </c>
+      <c r="W2">
+        <v>-13.176827404899402</v>
+      </c>
+      <c r="X2">
+        <v>-14.37262789152069</v>
+      </c>
+      <c r="Y2">
+        <v>-11.970702545451617</v>
+      </c>
+      <c r="Z2">
+        <v>51.046316364824953</v>
+      </c>
+      <c r="AA2">
+        <v>-16.257132483879889</v>
+      </c>
+      <c r="AB2">
+        <v>34.449276451322397</v>
+      </c>
+      <c r="AC2">
+        <v>-2.6022866700052774</v>
+      </c>
+      <c r="AD2">
+        <v>18.045290640765423</v>
+      </c>
+      <c r="AE2">
+        <v>67.639028544474527</v>
+      </c>
+      <c r="AF2">
+        <v>3.1204494950541886</v>
+      </c>
+      <c r="AG2">
+        <v>-1.7599675094277425</v>
+      </c>
+      <c r="AH2">
+        <v>6.3333645169384569</v>
+      </c>
+      <c r="AI2">
+        <v>-10.103523312141546</v>
+      </c>
+      <c r="AJ2">
+        <v>2.3429453303379635</v>
+      </c>
+      <c r="AK2">
+        <v>1.5103124398025973</v>
+      </c>
+      <c r="AL2">
+        <v>0.37138800181138926</v>
+      </c>
+      <c r="AM2">
         <v>-5.454241636103033</v>
       </c>
-      <c r="E2">
+      <c r="AN2">
         <v>1.7946541736515533</v>
       </c>
-      <c r="F2">
-        <v>158.88010037087327</v>
-      </c>
-      <c r="G2">
-        <v>-1.4175729135876678</v>
-      </c>
-      <c r="H2">
-        <v>-0.1084425085278764</v>
-      </c>
-      <c r="I2">
-        <v>2.9912362173294142</v>
-      </c>
-      <c r="J2">
-        <v>1.1776359288787992</v>
-      </c>
-      <c r="K2">
-        <v>-21.19660070698102</v>
-      </c>
-      <c r="L2">
-        <v>-0.33822830258054204</v>
-      </c>
-      <c r="M2">
-        <v>18.59237058454767</v>
-      </c>
-      <c r="N2">
-        <v>42.793535922247024</v>
-      </c>
-      <c r="O2">
-        <v>-12.452003473622151</v>
-      </c>
-      <c r="P2">
-        <v>40.625224877461555</v>
-      </c>
-      <c r="Q2">
-        <v>-41.002215695081787</v>
-      </c>
-      <c r="R2">
-        <v>6.1063277974351502</v>
-      </c>
-      <c r="S2">
-        <v>10.649369743137346</v>
-      </c>
-      <c r="T2">
-        <v>0.39993947693267273</v>
-      </c>
-      <c r="U2">
-        <v>-19.484948714306682</v>
-      </c>
-      <c r="V2">
-        <v>6.3555812882600913</v>
-      </c>
-      <c r="W2">
-        <v>-13.176827464501237</v>
-      </c>
-      <c r="X2">
-        <v>-14.372627948663737</v>
-      </c>
-      <c r="Y2">
-        <v>-11.97070263902879</v>
-      </c>
-      <c r="Z2">
-        <v>51.046316314023656</v>
-      </c>
-      <c r="AA2">
-        <v>-16.257132528180701</v>
-      </c>
-      <c r="AB2">
-        <v>34.44927640767088</v>
-      </c>
-      <c r="AC2">
-        <v>-2.6022866831362479</v>
-      </c>
-      <c r="AD2">
-        <v>18.045290619455969</v>
-      </c>
-      <c r="AE2">
-        <v>67.639028508985405</v>
-      </c>
-      <c r="AF2">
-        <v>3.1204494846572106</v>
-      </c>
-      <c r="AG2">
-        <v>-1.7599675361241074</v>
-      </c>
-      <c r="AH2">
-        <v>6.3333645017022624</v>
-      </c>
-      <c r="AI2">
-        <v>-10.103523338067241</v>
-      </c>
-      <c r="AJ2">
-        <v>2.3429453301601502</v>
-      </c>
-      <c r="AK2">
-        <v>1.5103124225148468</v>
-      </c>
-      <c r="AL2">
-        <v>0.37138795572343436</v>
-      </c>
-      <c r="AM2">
-        <v>-5.4542416826637012</v>
-      </c>
-      <c r="AN2">
-        <v>1.794654115537037</v>
-      </c>
       <c r="AO2">
-        <v>4.9822801180873633</v>
+        <v>4.9822801273851729</v>
       </c>
       <c r="AP2">
-        <v>-9.296074648696198</v>
+        <v>-9.296074589766107</v>
       </c>
       <c r="AQ2">
-        <v>-3.4537070548277558E-2</v>
+        <v>-3.4537018995118768E-2</v>
       </c>
       <c r="AR2">
-        <v>3.0729439646586942</v>
+        <v>3.072943964423406</v>
       </c>
       <c r="AS2">
-        <v>-8.2174919158586484</v>
+        <v>-8.2174919065512384</v>
       </c>
       <c r="AT2">
-        <v>-5.539776094408829</v>
+        <v>-5.5397760669431406</v>
       </c>
       <c r="AU2">
-        <v>-6.9283024089854335</v>
+        <v>-6.928302396183339</v>
       </c>
       <c r="AV2">
-        <v>8.9372563017121909</v>
+        <v>8.9372563708977104</v>
       </c>
       <c r="AW2">
-        <v>-10.005589412969439</v>
+        <v>-10.005589395455065</v>
       </c>
       <c r="AX2">
-        <v>8.8332788858176581E-2</v>
+        <v>8.8332831609742798E-2</v>
       </c>
       <c r="AY2">
-        <v>-10.990986766928765</v>
+        <v>-10.990986741307033</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -668,154 +668,154 @@
         <v>2</v>
       </c>
       <c r="B3">
+        <v>17.214337084617611</v>
+      </c>
+      <c r="C3">
+        <v>-9.9183793917235636</v>
+      </c>
+      <c r="D3">
+        <v>-12.162587627634295</v>
+      </c>
+      <c r="E3">
+        <v>13.781794635853808</v>
+      </c>
+      <c r="F3">
+        <v>16.510174901873292</v>
+      </c>
+      <c r="G3">
+        <v>-4.9172556343620677</v>
+      </c>
+      <c r="H3">
+        <v>0.23105157064605666</v>
+      </c>
+      <c r="I3">
+        <v>0.91354277681295426</v>
+      </c>
+      <c r="J3">
+        <v>-12.162992024139939</v>
+      </c>
+      <c r="K3">
+        <v>-14.360363928576284</v>
+      </c>
+      <c r="L3">
+        <v>-27.869281703974114</v>
+      </c>
+      <c r="M3">
+        <v>21.408143935394737</v>
+      </c>
+      <c r="N3">
         <v>40.635045313971894</v>
       </c>
-      <c r="C3">
+      <c r="O3">
         <v>7.226494459758567</v>
       </c>
-      <c r="D3">
+      <c r="P3">
+        <v>-3.936035622024856</v>
+      </c>
+      <c r="Q3">
+        <v>14.271670520494695</v>
+      </c>
+      <c r="R3">
+        <v>8.7873681415789751</v>
+      </c>
+      <c r="S3">
+        <v>10.29978437408953</v>
+      </c>
+      <c r="T3">
+        <v>5.2519673717749686</v>
+      </c>
+      <c r="U3">
+        <v>3.883411491228745</v>
+      </c>
+      <c r="V3">
+        <v>-27.391236109620426</v>
+      </c>
+      <c r="W3">
+        <v>-5.5511146843916563</v>
+      </c>
+      <c r="X3">
+        <v>7.8622802610960028</v>
+      </c>
+      <c r="Y3">
+        <v>-39.028103899423243</v>
+      </c>
+      <c r="Z3">
+        <v>-8.7625674258345896</v>
+      </c>
+      <c r="AA3">
+        <v>-10.238589932915691</v>
+      </c>
+      <c r="AB3">
+        <v>2.6816823761109809</v>
+      </c>
+      <c r="AC3">
+        <v>-4.6663570736849191</v>
+      </c>
+      <c r="AD3">
+        <v>14.988434079529428</v>
+      </c>
+      <c r="AE3">
+        <v>-8.1753336353568287</v>
+      </c>
+      <c r="AF3">
+        <v>-3.4483275579780792</v>
+      </c>
+      <c r="AG3">
+        <v>-11.502713307150302</v>
+      </c>
+      <c r="AH3">
+        <v>-22.71436094108412</v>
+      </c>
+      <c r="AI3">
+        <v>-1.481705890325308</v>
+      </c>
+      <c r="AJ3">
+        <v>-8.1414674287271325</v>
+      </c>
+      <c r="AK3">
+        <v>-15.525542643419964</v>
+      </c>
+      <c r="AL3">
+        <v>-17.813495476523659</v>
+      </c>
+      <c r="AM3">
         <v>-23.671649939920549</v>
       </c>
-      <c r="E3">
+      <c r="AN3">
         <v>15.667814657011764</v>
       </c>
-      <c r="F3">
-        <v>16.510174890838218</v>
-      </c>
-      <c r="G3">
-        <v>-4.9172556884983409</v>
-      </c>
-      <c r="H3">
-        <v>0.2310515318907288</v>
-      </c>
-      <c r="I3">
-        <v>0.91354275887147474</v>
-      </c>
-      <c r="J3">
-        <v>-12.162992045397415</v>
-      </c>
-      <c r="K3">
-        <v>-14.360363963597605</v>
-      </c>
-      <c r="L3">
-        <v>-27.869281731566957</v>
-      </c>
-      <c r="M3">
-        <v>21.40838902945011</v>
-      </c>
-      <c r="N3">
-        <v>40.635045246377473</v>
-      </c>
-      <c r="O3">
-        <v>7.2264944192813747</v>
-      </c>
-      <c r="P3">
-        <v>-3.9360356952135724</v>
-      </c>
-      <c r="Q3">
-        <v>14.271670458172734</v>
-      </c>
-      <c r="R3">
-        <v>8.787368105909735</v>
-      </c>
-      <c r="S3">
-        <v>10.299784346224369</v>
-      </c>
-      <c r="T3">
-        <v>5.2519673435242069</v>
-      </c>
-      <c r="U3">
-        <v>3.8834114443258927</v>
-      </c>
-      <c r="V3">
-        <v>-27.391236141859444</v>
-      </c>
-      <c r="W3">
-        <v>-5.5511147134566174</v>
-      </c>
-      <c r="X3">
-        <v>7.8622802097562436</v>
-      </c>
-      <c r="Y3">
-        <v>-39.028103920521822</v>
-      </c>
-      <c r="Z3">
-        <v>-8.7625674683769255</v>
-      </c>
-      <c r="AA3">
-        <v>-10.238589977540126</v>
-      </c>
-      <c r="AB3">
-        <v>2.6816823401736327</v>
-      </c>
-      <c r="AC3">
-        <v>-4.6663571046438275</v>
-      </c>
-      <c r="AD3">
-        <v>14.988434061628539</v>
-      </c>
-      <c r="AE3">
-        <v>-8.1753336457694683</v>
-      </c>
-      <c r="AF3">
-        <v>-3.4483275947113299</v>
-      </c>
-      <c r="AG3">
-        <v>-11.502713329469593</v>
-      </c>
-      <c r="AH3">
-        <v>-22.714360962484133</v>
-      </c>
-      <c r="AI3">
-        <v>-1.4817059137950399</v>
-      </c>
-      <c r="AJ3">
-        <v>-8.1414674779530625</v>
-      </c>
-      <c r="AK3">
-        <v>-15.5255426646817</v>
-      </c>
-      <c r="AL3">
-        <v>-17.813495528787694</v>
-      </c>
-      <c r="AM3">
-        <v>-23.671649998916276</v>
-      </c>
-      <c r="AN3">
-        <v>15.667814630517082</v>
-      </c>
       <c r="AO3">
-        <v>-3.6550934290372346</v>
+        <v>-3.6550933199541764</v>
       </c>
       <c r="AP3">
-        <v>-0.39720891477829479</v>
+        <v>-0.39720887467358368</v>
       </c>
       <c r="AQ3">
-        <v>-7.3683557619855771</v>
+        <v>-7.3683557482878959</v>
       </c>
       <c r="AR3">
-        <v>4.9580405952738715</v>
+        <v>4.9580406211742805</v>
       </c>
       <c r="AS3">
-        <v>7.8006697174714885</v>
+        <v>7.8006697403684697</v>
       </c>
       <c r="AT3">
-        <v>3.0091084833375641</v>
+        <v>3.009108495623714</v>
       </c>
       <c r="AU3">
-        <v>-10.126799803265673</v>
+        <v>-10.126799756766964</v>
       </c>
       <c r="AV3">
-        <v>-6.003611854227298</v>
+        <v>-6.0036118200398221</v>
       </c>
       <c r="AW3">
-        <v>1.6944211495929795</v>
+        <v>1.6944211957811415</v>
       </c>
       <c r="AX3">
-        <v>-4.7350867608742648</v>
+        <v>-4.7350867099439924</v>
       </c>
       <c r="AY3">
-        <v>-51.830087148998125</v>
+        <v>-51.830087120722283</v>
       </c>
     </row>
   </sheetData>
